--- a/data/trans_orig/Barthel-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Barthel-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>94.94164126595888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93.89518719771873</v>
+        <v>93.8951871977187</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>93.42382794231258</v>
@@ -681,7 +681,7 @@
         <v>91.64358928323217</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>87.93677808038754</v>
+        <v>87.93677808038751</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>93.87666347543413</v>
@@ -693,7 +693,7 @@
         <v>92.92975105346439</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>89.83778577764346</v>
+        <v>89.83778577764343</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>92.0735332229543</v>
+        <v>91.98347016435775</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>89.88103092387482</v>
+        <v>90.03488839459231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92.58724337178471</v>
+        <v>92.21427716891991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90.86215343905099</v>
+        <v>90.65102702960992</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>91.12998144341918</v>
+        <v>90.8120238031465</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>86.27147401961814</v>
+        <v>86.23691368436381</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>89.30339863085487</v>
+        <v>89.22132435697158</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>85.34320771538695</v>
+        <v>85.47703051608829</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>92.11202218691469</v>
+        <v>92.20104179837931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88.76845919759926</v>
+        <v>88.95663540421317</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91.10490196424301</v>
+        <v>91.16802818097452</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>87.69468714414951</v>
+        <v>87.5787709459253</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>96.66517358740884</v>
+        <v>96.71713709465529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>95.74677222747253</v>
+        <v>95.75033775787706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96.65266990384764</v>
+        <v>96.664284941128</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95.87614065191333</v>
+        <v>95.60145875265658</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>95.13834723957771</v>
+        <v>95.22325063437739</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>91.92222372706439</v>
+        <v>91.79748219918775</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>93.5911900479789</v>
+        <v>93.42227451726998</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>90.08124740949189</v>
+        <v>90.06222210426824</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>95.29717745404825</v>
+        <v>95.33565902550265</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>92.82408144869848</v>
+        <v>92.97681478165646</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94.36096783523362</v>
+        <v>94.33438426277989</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>91.43457094324567</v>
+        <v>91.34272497584591</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>97.20950273509045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94.87921207037476</v>
+        <v>94.87921207037478</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>97.31940756904547</v>
@@ -817,7 +817,7 @@
         <v>94.97849580962817</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>91.93892058642292</v>
+        <v>91.93892058642294</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>97.5398394143523</v>
@@ -829,7 +829,7 @@
         <v>95.94821915773539</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>93.1151664693693</v>
+        <v>93.11516646936931</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>95.88254591061074</v>
+        <v>96.16560671557593</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>91.12714591596603</v>
+        <v>91.08718070546431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>95.6977094053309</v>
+        <v>95.64891965645845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>92.99871700184833</v>
+        <v>92.93896457376059</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>95.68318582969664</v>
+        <v>95.56648230570316</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>88.7798538164605</v>
+        <v>88.69834733371864</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>92.94084666488892</v>
+        <v>92.89910964579926</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>90.21258252313943</v>
+        <v>90.33162795350044</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>96.33802490381092</v>
+        <v>96.48924133619013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>90.3771305931492</v>
+        <v>90.74845481493226</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94.76996194517892</v>
+        <v>94.6557689793065</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>91.92909596283771</v>
+        <v>92.08455396293202</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>98.74129374518321</v>
+        <v>98.89361329735553</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>96.67708207532293</v>
+        <v>96.7667905849088</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>98.30384063559701</v>
+        <v>98.39775973542638</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>96.18354926059121</v>
+        <v>96.14757356200417</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>98.31838100206724</v>
+        <v>98.31988992686389</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>93.35106774406192</v>
+        <v>93.32729078902193</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>96.44327774698314</v>
+        <v>96.48396909527453</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>93.10023696738565</v>
+        <v>93.17746190403493</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>98.31324345387385</v>
+        <v>98.30719339592606</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>94.13824820819744</v>
+        <v>94.18689973838626</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>96.93024589140892</v>
+        <v>96.93106939941588</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>94.11797661790169</v>
+        <v>94.19621350344062</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>97.27928925515803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97.43477781757903</v>
+        <v>97.43477781757905</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>96.33424702327893</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>97.52877376476627</v>
+        <v>97.50430278423016</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>93.28303146339974</v>
+        <v>93.34567971383504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95.28556468436655</v>
+        <v>95.39883573874417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96.14996007601042</v>
+        <v>96.06832570870922</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>93.68805601619262</v>
+        <v>93.32242147546243</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>89.35374154250222</v>
+        <v>89.33677224796391</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>88.47859980815531</v>
+        <v>88.69050947599069</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>91.99272714417603</v>
+        <v>91.86601105110223</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>96.01107883855713</v>
+        <v>96.11432961410344</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92.41030455796223</v>
+        <v>92.46198976130268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92.43150275654612</v>
+        <v>92.25591219511887</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>94.49192072525028</v>
+        <v>94.5440954092833</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>99.40770540907162</v>
+        <v>99.40415761209796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>97.94289410947387</v>
+        <v>97.86456970749515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>98.37762496051562</v>
+        <v>98.50446689422634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>98.22094734468352</v>
+        <v>98.24165339772755</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>98.27670334958087</v>
+        <v>98.04791797702686</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>95.39471499707986</v>
+        <v>95.27757724080867</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>95.33997745804905</v>
+        <v>95.26124683798757</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>94.98625403813057</v>
+        <v>94.94764127173077</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>98.59586496627804</v>
+        <v>98.5690392940174</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>96.11851729120397</v>
+        <v>96.11620339570833</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>96.32334107534034</v>
+        <v>96.29734974022955</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>96.32355457582366</v>
+        <v>96.2837110918869</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>99.00479978114143</v>
+        <v>99.0727010854967</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>92.6668333726698</v>
+        <v>92.34431851904583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90.40442231923542</v>
+        <v>91.42806898843683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96.20619686698286</v>
+        <v>96.47245335489229</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>94.10952528555542</v>
+        <v>93.39716341032796</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>88.71778452750237</v>
+        <v>88.70587492372921</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>94.26850822874759</v>
+        <v>94.29212166193201</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>92.50230934354728</v>
+        <v>92.5610072652353</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>97.05140410298084</v>
+        <v>97.00288723954012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91.68521527059646</v>
+        <v>92.10833430342608</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94.09874446762527</v>
+        <v>94.13852050884852</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>94.98683658124068</v>
+        <v>94.88571200657984</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>99.90384162235775</v>
+        <v>99.90316152409491</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>98.60477806128375</v>
+        <v>98.48631805342843</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96.94981395337872</v>
+        <v>97.193358976502</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>98.17566791849225</v>
+        <v>98.19107333988572</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>99.0232987409082</v>
+        <v>99.01832474764876</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>95.86527256020067</v>
+        <v>96.01913642759389</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>98.12673979716189</v>
+        <v>98.09590435875781</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>95.89867259875965</v>
+        <v>95.67728750304137</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>99.36072777258806</v>
+        <v>99.354938714944</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>96.57947584724295</v>
+        <v>96.6886440593491</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>97.40577722855488</v>
+        <v>97.3428540705216</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>96.83970094147122</v>
+        <v>96.75393920133415</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>94.71630076251147</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>94.14064486949258</v>
+        <v>94.14064486949259</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>96.56803366616377</v>
+        <v>96.36993813309566</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>93.44752446496945</v>
+        <v>93.6405703220896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95.1676427518638</v>
+        <v>95.1874057740321</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95.5975368853301</v>
+        <v>95.69640678016525</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>94.47008948617319</v>
+        <v>94.36249703064944</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>89.81598454598041</v>
+        <v>90.05997835416811</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>92.12732892025322</v>
+        <v>92.22678357242694</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>91.55119142212322</v>
+        <v>91.47651627416042</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>95.61833777326413</v>
+        <v>95.5917831154172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91.88229895863878</v>
+        <v>91.9228355567584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>93.9475862491359</v>
+        <v>93.8224879401037</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>93.55580264072286</v>
+        <v>93.58754794144292</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>98.21284586233512</v>
+        <v>98.16821770042625</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>96.22216025376885</v>
+        <v>96.25710445227557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>97.10623454230337</v>
+        <v>97.03832584664947</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96.97692729305761</v>
+        <v>96.95804325970079</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>96.47046641389953</v>
+        <v>96.43014676040966</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>92.62694090013036</v>
+        <v>92.78624859410995</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>94.62940414393306</v>
+        <v>94.66668796299648</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>93.14288264390512</v>
+        <v>93.14315672298558</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>97.00098127240743</v>
+        <v>96.94793895548042</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>93.93948717290397</v>
+        <v>93.92796725194651</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95.49991245771061</v>
+        <v>95.39876480169734</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>94.66542844682674</v>
+        <v>94.64720704302852</v>
       </c>
     </row>
     <row r="19">
